--- a/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Garantia_Terminos Por Rol_2018-Mayo.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Garantia_Terminos Por Rol_2018-Mayo.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>14</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         </is>
       </c>
       <c r="C4" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -287,7 +287,7 @@
         </is>
       </c>
       <c r="C6" s="65">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -332,7 +332,7 @@
         </is>
       </c>
       <c r="C9" s="65">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -343,11 +343,11 @@
       </c>
       <c t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+          <t xml:space="preserve">Desistimiento Querella.</t>
         </is>
       </c>
       <c r="C10" s="65">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -358,11 +358,26 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
+        </is>
+      </c>
+      <c r="C11" s="65">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">Juzgado De Letras Y Garantia De Alto Hospicio</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="B12">
+        <is>
           <t xml:space="preserve">Sentencia.</t>
         </is>
       </c>
-      <c r="C11" s="65">
-        <v>13</v>
+      <c r="C12" s="65">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
